--- a/Documentation/Evaluation/Self_Evaluation_MyFridge.xlsx
+++ b/Documentation/Evaluation/Self_Evaluation_MyFridge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Git2\InventoryManager\Documentation\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1494DF-B2CF-4B0A-805A-D1DC03FC2949}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0465CA0-8D95-4BFA-8DA1-FFD907FE31B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17548" windowHeight="5809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C8" s="8">
         <f>SUM(C9:C12)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -1145,7 +1145,9 @@
       <c r="B9" s="13">
         <v>1</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1155,7 +1157,9 @@
       <c r="B10" s="13">
         <v>2</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1165,7 +1169,9 @@
       <c r="B11" s="13">
         <v>1</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1175,7 +1181,9 @@
       <c r="B12" s="13">
         <v>1</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1188,7 +1196,7 @@
       </c>
       <c r="C13" s="8">
         <f>SUM(C14:C18)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -1199,7 +1207,9 @@
       <c r="B14" s="13">
         <v>1</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1209,7 +1219,9 @@
       <c r="B15" s="13">
         <v>1</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1219,7 +1231,9 @@
       <c r="B16" s="13">
         <v>1</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" ht="29.9" thickBot="1" x14ac:dyDescent="0.35">
@@ -1229,17 +1243,21 @@
       <c r="B17" s="13">
         <v>2</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="1:4" ht="29.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="13">
         <v>5</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14">
+        <v>5</v>
+      </c>
       <c r="D18" s="27" t="s">
         <v>57</v>
       </c>
@@ -1254,7 +1272,7 @@
       </c>
       <c r="C19" s="8">
         <f>SUM(C20:C24)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -1265,7 +1283,9 @@
       <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14">
+        <v>4</v>
+      </c>
       <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1275,7 +1295,9 @@
       <c r="B21" s="13">
         <v>4</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="14">
+        <v>4</v>
+      </c>
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1285,7 +1307,9 @@
       <c r="B22" s="13">
         <v>4</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="14">
+        <v>4</v>
+      </c>
       <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1295,7 +1319,9 @@
       <c r="B23" s="13">
         <v>4</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="14">
+        <v>4</v>
+      </c>
       <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1305,7 +1331,9 @@
       <c r="B24" s="13">
         <v>4</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>4</v>
+      </c>
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1318,7 +1346,7 @@
       </c>
       <c r="C25" s="8">
         <f>SUM(C26:C43)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -1329,7 +1357,9 @@
       <c r="B26" s="38">
         <v>4</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="41">
+        <v>2</v>
+      </c>
       <c r="D26" s="44"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1355,7 +1385,9 @@
       <c r="B29" s="13">
         <v>8</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="14">
+        <v>8</v>
+      </c>
       <c r="D29" s="26" t="s">
         <v>59</v>
       </c>
@@ -1367,7 +1399,9 @@
       <c r="B30" s="13">
         <v>4</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="14">
+        <v>4</v>
+      </c>
       <c r="D30" s="26" t="s">
         <v>58</v>
       </c>
@@ -1379,7 +1413,9 @@
       <c r="B31" s="38">
         <v>6</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="47">
+        <v>5</v>
+      </c>
       <c r="D31" s="50" t="s">
         <v>60</v>
       </c>
@@ -1407,7 +1443,9 @@
       <c r="B34" s="13">
         <v>4</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="14">
+        <v>4</v>
+      </c>
       <c r="D34" s="26" t="s">
         <v>61</v>
       </c>
@@ -1419,7 +1457,9 @@
       <c r="B35" s="13">
         <v>8</v>
       </c>
-      <c r="C35" s="14"/>
+      <c r="C35" s="14">
+        <v>8</v>
+      </c>
       <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" ht="29.3" x14ac:dyDescent="0.3">
@@ -1429,7 +1469,9 @@
       <c r="B36" s="31">
         <v>16</v>
       </c>
-      <c r="C36" s="34"/>
+      <c r="C36" s="34">
+        <v>16</v>
+      </c>
       <c r="D36" s="28" t="s">
         <v>62</v>
       </c>
@@ -1481,7 +1523,9 @@
       <c r="B41" s="13">
         <v>4</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="14">
+        <v>3</v>
+      </c>
       <c r="D41" s="26" t="s">
         <v>67</v>
       </c>
@@ -1493,7 +1537,9 @@
       <c r="B42" s="13">
         <v>2</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="14">
+        <v>2</v>
+      </c>
       <c r="D42" s="26" t="s">
         <v>68</v>
       </c>
@@ -1505,7 +1551,9 @@
       <c r="B43" s="13">
         <v>4</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="14">
+        <v>4</v>
+      </c>
       <c r="D43" s="26" t="s">
         <v>61</v>
       </c>
@@ -1520,7 +1568,7 @@
       </c>
       <c r="C44" s="22">
         <f>SUM(C45:C46)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D44" s="23"/>
     </row>
@@ -1531,7 +1579,9 @@
       <c r="B45" s="25">
         <v>1</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="22">
+        <v>1</v>
+      </c>
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1541,7 +1591,9 @@
       <c r="B46" s="25">
         <v>4</v>
       </c>
-      <c r="C46" s="22"/>
+      <c r="C46" s="22">
+        <v>4</v>
+      </c>
       <c r="D46" s="23" t="s">
         <v>43</v>
       </c>
@@ -1556,11 +1608,11 @@
       </c>
       <c r="C47" s="10">
         <f>SUM(C44,C25,C19,C13,C8)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D47" s="10">
         <f>IF(C47&gt;90,5,(IF(C47&gt;80,4,(IF(C47&gt;70,3,IF(C47&gt;60, 2, (IF(C47&gt;50,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
